--- a/R750 Servers in HWL.xlsx
+++ b/R750 Servers in HWL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejaswi_S\OneDrive - Dell Technologies\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dell-my.sharepoint.com/personal/prakash_shirabur_dell_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B04BD0-D4A9-4BBC-A6E5-F70079E75453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{74B04BD0-D4A9-4BBC-A6E5-F70079E75453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{044582C5-C831-403B-A2D2-2AD06481D81F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="67">
   <si>
     <t>Part Number</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>BV09GR3</t>
-  </si>
-  <si>
-    <t>JV494F3</t>
   </si>
   <si>
     <t>J8WWJF3</t>
@@ -690,22 +687,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10ACFA4-0B8E-4C2D-AA47-1F4A5A92863D}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.47265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.3671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.89453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.3671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -726,15 +725,15 @@
         <v>3</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>31</v>
+      <c r="B2" s="6">
+        <v>12344</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>16</v>
@@ -752,10 +751,10 @@
         <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -778,10 +777,10 @@
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -804,15 +803,15 @@
         <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>16</v>
@@ -830,15 +829,15 @@
         <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>16</v>
@@ -856,15 +855,15 @@
         <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>16</v>
@@ -882,15 +881,15 @@
         <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>16</v>
@@ -908,15 +907,15 @@
         <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>16</v>
@@ -934,15 +933,15 @@
         <v>13</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>16</v>
@@ -960,15 +959,15 @@
         <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>16</v>
@@ -986,15 +985,15 @@
         <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>16</v>
@@ -1012,15 +1011,15 @@
         <v>13</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>16</v>
@@ -1038,15 +1037,15 @@
         <v>13</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>16</v>
@@ -1064,15 +1063,15 @@
         <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>16</v>
@@ -1090,15 +1089,15 @@
         <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>16</v>
@@ -1116,10 +1115,10 @@
         <v>13</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1142,10 +1141,10 @@
         <v>10</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1168,10 +1167,10 @@
         <v>10</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1194,10 +1193,10 @@
         <v>10</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1220,10 +1219,10 @@
         <v>10</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1246,15 +1245,15 @@
         <v>10</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>16</v>
@@ -1272,15 +1271,15 @@
         <v>10</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>16</v>
@@ -1298,15 +1297,15 @@
         <v>10</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>16</v>
@@ -1324,15 +1323,15 @@
         <v>10</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>16</v>
@@ -1350,15 +1349,15 @@
         <v>10</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>16</v>
@@ -1376,10 +1375,10 @@
         <v>10</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1402,10 +1401,10 @@
         <v>11</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1428,15 +1427,15 @@
         <v>11</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>16</v>
@@ -1454,15 +1453,15 @@
         <v>11</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>16</v>
@@ -1480,15 +1479,15 @@
         <v>11</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>16</v>
@@ -1506,15 +1505,15 @@
         <v>11</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>16</v>
@@ -1532,15 +1531,15 @@
         <v>11</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>16</v>
@@ -1558,15 +1557,15 @@
         <v>15</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>16</v>
@@ -1584,10 +1583,10 @@
         <v>19</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1610,15 +1609,15 @@
         <v>14</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>16</v>
@@ -1636,15 +1635,15 @@
         <v>12</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>16</v>
@@ -1662,10 +1661,10 @@
         <v>12</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1688,7 +1687,7 @@
         <v>9</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
